--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nr.</t>
   </si>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">Projektmanagementmethode definieren</t>
   </si>
   <si>
-    <t xml:space="preserve">Expertenbesuche (TBD)</t>
+    <t xml:space="preserve">Expertenbesuche</t>
   </si>
   <si>
     <t xml:space="preserve">Anhang erstellen </t>
@@ -252,7 +252,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -316,12 +316,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -535,7 +529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -692,18 +686,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -728,10 +714,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,18 +726,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -768,10 +742,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -780,10 +750,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,10 +806,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -856,14 +818,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -912,20 +866,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1192,7 +1138,7 @@
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="BJ20" activeCellId="0" sqref="BJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1575,7 +1521,6 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="0"/>
       <c r="J7" s="27" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1702,6 @@
       <c r="K10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="0"/>
       <c r="M10" s="20"/>
       <c r="N10" s="34"/>
       <c r="O10" s="21"/>
@@ -1933,11 +1877,10 @@
       <c r="I13" s="33"/>
       <c r="J13" s="36"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="0"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="38"/>
-      <c r="P13" s="39"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="19"/>
       <c r="S13" s="21"/>
@@ -1981,18 +1924,16 @@
       <c r="G14" s="20"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="40"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="L14" s="27"/>
       <c r="M14" s="24"/>
       <c r="N14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="19"/>
       <c r="S14" s="21"/>
       <c r="T14" s="20"/>
@@ -2050,11 +1991,9 @@
       <c r="K15" s="21"/>
       <c r="L15" s="20"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="0"/>
+      <c r="N15" s="41"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="S15" s="21"/>
       <c r="T15" s="20"/>
       <c r="U15" s="13"/>
@@ -2103,10 +2042,10 @@
       <c r="N16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="21"/>
       <c r="T16" s="20"/>
       <c r="U16" s="13"/>
@@ -2163,10 +2102,9 @@
       <c r="K17" s="21"/>
       <c r="L17" s="20"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="0"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
       <c r="T17" s="20"/>
@@ -2213,12 +2151,12 @@
       <c r="K18" s="21"/>
       <c r="L18" s="20"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="19"/>
-      <c r="S18" s="41"/>
+      <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="13"/>
       <c r="V18" s="19"/>
@@ -2254,7 +2192,7 @@
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="48" t="n">
+      <c r="C19" s="5" t="n">
         <f aca="false">C20</f>
         <v>2</v>
       </c>
@@ -2312,7 +2250,7 @@
       <c r="A20" s="12" t="n">
         <v>3.1</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="12" t="n">
@@ -2332,16 +2270,16 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="13"/>
       <c r="N20" s="19"/>
       <c r="O20" s="25"/>
-      <c r="P20" s="51"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="19"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="53"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="49"/>
       <c r="U20" s="13"/>
       <c r="V20" s="19"/>
       <c r="W20" s="20"/>
@@ -2371,7 +2309,7 @@
     </row>
     <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="49"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2393,7 +2331,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="20"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="54"/>
+      <c r="V21" s="34"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="13"/>
@@ -2502,7 +2440,7 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="50"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="19"/>
       <c r="K23" s="21"/>
       <c r="L23" s="20"/>
@@ -2511,16 +2449,15 @@
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
-      <c r="R23" s="55"/>
+      <c r="R23" s="50"/>
       <c r="S23" s="20"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="19"/>
@@ -2566,8 +2503,8 @@
       <c r="T24" s="20"/>
       <c r="U24" s="13"/>
       <c r="V24" s="19"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="20"/>
@@ -2617,10 +2554,10 @@
       <c r="J25" s="19"/>
       <c r="K25" s="21"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="50"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="19"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="51"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="36"/>
       <c r="S25" s="21"/>
@@ -2632,9 +2569,9 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="19"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="56"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="51"/>
       <c r="AE25" s="20"/>
       <c r="AF25" s="20"/>
       <c r="AG25" s="22"/>
@@ -2670,7 +2607,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="19"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="51"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="19"/>
       <c r="S26" s="21"/>
@@ -2679,9 +2616,9 @@
       <c r="V26" s="19"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="41"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="19"/>
@@ -2706,7 +2643,7 @@
       <c r="A27" s="12" t="n">
         <v>4.3</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="14" t="n">
@@ -2743,12 +2680,12 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="19"/>
       <c r="AA27" s="20"/>
-      <c r="AB27" s="58"/>
+      <c r="AB27" s="13"/>
       <c r="AD27" s="19"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="56"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="51"/>
       <c r="AI27" s="20"/>
       <c r="AJ27" s="20"/>
       <c r="AK27" s="13"/>
@@ -2764,7 +2701,7 @@
     </row>
     <row r="28" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
-      <c r="B28" s="49"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="14"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2792,7 +2729,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="20"/>
-      <c r="AB28" s="41"/>
+      <c r="AB28" s="20"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="20"/>
@@ -2841,10 +2778,10 @@
       <c r="M29" s="13"/>
       <c r="N29" s="19"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="50"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="51"/>
+      <c r="S29" s="48"/>
       <c r="T29" s="20"/>
       <c r="U29" s="13"/>
       <c r="V29" s="19"/>
@@ -2858,10 +2795,9 @@
       <c r="AD29" s="19"/>
       <c r="AE29" s="20"/>
       <c r="AG29" s="22"/>
-      <c r="AH29" s="0"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="59" t="s">
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="53" t="s">
         <v>20</v>
       </c>
       <c r="AL29" s="19"/>
@@ -2892,7 +2828,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="19"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="51"/>
+      <c r="P30" s="48"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="19"/>
       <c r="S30" s="20"/>
@@ -2905,9 +2841,9 @@
       <c r="Z30" s="19"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="41"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="19"/>
@@ -2953,7 +2889,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="19"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="51"/>
+      <c r="P31" s="48"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="19"/>
       <c r="S31" s="20"/>
@@ -2969,18 +2905,16 @@
       <c r="AC31" s="13"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="20"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="61"/>
+      <c r="AF31" s="54"/>
+      <c r="AG31" s="22"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="20"/>
-      <c r="AJ31" s="0"/>
-      <c r="AK31" s="59" t="s">
+      <c r="AK31" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AL31" s="59" t="s">
+      <c r="AL31" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AM31" s="0"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="22"/>
       <c r="AP31" s="19"/>
@@ -3007,7 +2941,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="19"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="51"/>
+      <c r="P32" s="48"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="19"/>
       <c r="S32" s="20"/>
@@ -3023,9 +2957,9 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="20"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="54"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="34"/>
       <c r="AI32" s="20"/>
       <c r="AJ32" s="20"/>
       <c r="AK32" s="13"/>
@@ -3046,7 +2980,7 @@
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="48" t="n">
+      <c r="C33" s="5" t="n">
         <f aca="false">SUM(C34:C39)</f>
         <v>13</v>
       </c>
@@ -3054,11 +2988,11 @@
         <f aca="false">SUM(D34:D39)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="62" t="n">
+      <c r="E33" s="55" t="n">
         <f aca="false">D33-C33</f>
         <v>-13</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -3117,7 +3051,7 @@
         <f aca="false">D34-C34</f>
         <v>-4</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="57" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="20"/>
@@ -3137,7 +3071,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="51"/>
+      <c r="X34" s="48"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="20"/>
@@ -3148,14 +3082,14 @@
       <c r="AF34" s="20"/>
       <c r="AG34" s="22"/>
       <c r="AH34" s="19"/>
-      <c r="AI34" s="61"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="59" t="s">
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="59" t="s">
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="53" t="s">
         <v>20</v>
       </c>
       <c r="AO34" s="22"/>
@@ -3202,9 +3136,9 @@
       <c r="AF35" s="20"/>
       <c r="AG35" s="22"/>
       <c r="AH35" s="19"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
       <c r="AL35" s="19"/>
       <c r="AM35" s="20"/>
       <c r="AN35" s="20"/>
@@ -3232,7 +3166,7 @@
         <f aca="false">D36-C36</f>
         <v>-1</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="F36" s="57" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="20"/>
@@ -3254,7 +3188,7 @@
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="26"/>
-      <c r="Z36" s="66"/>
+      <c r="Z36" s="59"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="13"/>
@@ -3266,9 +3200,8 @@
       <c r="AI36" s="20"/>
       <c r="AJ36" s="20"/>
       <c r="AK36" s="26"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="0"/>
-      <c r="AN36" s="59" t="s">
+      <c r="AL36" s="34"/>
+      <c r="AN36" s="53" t="s">
         <v>20</v>
       </c>
       <c r="AO36" s="22"/>
@@ -3318,7 +3251,7 @@
       <c r="AI37" s="20"/>
       <c r="AJ37" s="20"/>
       <c r="AK37" s="13"/>
-      <c r="AL37" s="54"/>
+      <c r="AL37" s="34"/>
       <c r="AM37" s="20"/>
       <c r="AN37" s="20"/>
       <c r="AO37" s="22"/>
@@ -3332,7 +3265,7 @@
       <c r="A38" s="12" t="n">
         <v>5.3</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="60" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="12" t="n">
@@ -3381,17 +3314,16 @@
       <c r="AK38" s="13"/>
       <c r="AL38" s="19"/>
       <c r="AM38" s="19"/>
-      <c r="AN38" s="0"/>
-      <c r="AO38" s="65"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="65"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="52"/>
+      <c r="AR38" s="58"/>
       <c r="AS38" s="22"/>
       <c r="AT38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="67"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -3430,11 +3362,11 @@
       <c r="AJ39" s="20"/>
       <c r="AK39" s="13"/>
       <c r="AL39" s="19"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="41"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="20"/>
       <c r="AR39" s="20"/>
       <c r="AS39" s="22"/>
       <c r="AT39" s="19"/>
@@ -3454,7 +3386,7 @@
         <f aca="false">SUM(D41:D41)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="68" t="n">
+      <c r="E40" s="61" t="n">
         <f aca="false">D40-C40</f>
         <v>-2</v>
       </c>
@@ -3558,7 +3490,7 @@
       <c r="AP41" s="19"/>
       <c r="AQ41" s="20"/>
       <c r="AR41" s="20"/>
-      <c r="AS41" s="65"/>
+      <c r="AS41" s="58"/>
       <c r="AT41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3609,7 +3541,7 @@
       <c r="AQ42" s="20"/>
       <c r="AR42" s="20"/>
       <c r="AS42" s="22"/>
-      <c r="AT42" s="69"/>
+      <c r="AT42" s="62"/>
     </row>
     <row r="43" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
@@ -3618,11 +3550,11 @@
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="48" t="n">
+      <c r="C43" s="5" t="n">
         <f aca="false">SUM(C44:C52)</f>
         <v>10</v>
       </c>
-      <c r="D43" s="48" t="n">
+      <c r="D43" s="5" t="n">
         <f aca="false">SUM(D44:D52)</f>
         <v>4</v>
       </c>
@@ -3676,7 +3608,7 @@
       <c r="A44" s="12" t="n">
         <v>7.1</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="60" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="12" t="n">
@@ -3692,7 +3624,7 @@
       <c r="F44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="19"/>
@@ -3718,7 +3650,7 @@
       <c r="AD44" s="19"/>
       <c r="AE44" s="20"/>
       <c r="AF44" s="20"/>
-      <c r="AG44" s="70"/>
+      <c r="AG44" s="63"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="20"/>
       <c r="AJ44" s="20"/>
@@ -3726,11 +3658,11 @@
       <c r="AL44" s="19"/>
       <c r="AM44" s="20"/>
       <c r="AN44" s="20"/>
-      <c r="AO44" s="70"/>
+      <c r="AO44" s="63"/>
       <c r="AP44" s="19"/>
       <c r="AQ44" s="20"/>
       <c r="AR44" s="20"/>
-      <c r="AS44" s="70"/>
+      <c r="AS44" s="63"/>
       <c r="AT44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3768,7 +3700,7 @@
       <c r="AD45" s="19"/>
       <c r="AE45" s="21"/>
       <c r="AF45" s="20"/>
-      <c r="AG45" s="70"/>
+      <c r="AG45" s="63"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="20"/>
       <c r="AJ45" s="20"/>
@@ -3776,18 +3708,18 @@
       <c r="AL45" s="19"/>
       <c r="AM45" s="21"/>
       <c r="AN45" s="20"/>
-      <c r="AO45" s="70"/>
+      <c r="AO45" s="63"/>
       <c r="AP45" s="19"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="20"/>
-      <c r="AS45" s="70"/>
+      <c r="AS45" s="63"/>
       <c r="AT45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="n">
         <v>7.2</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="60" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="12" t="n">
@@ -3804,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="20"/>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="64" t="s">
         <v>20</v>
       </c>
       <c r="I46" s="13"/>
@@ -3831,7 +3763,7 @@
       <c r="AD46" s="19"/>
       <c r="AE46" s="20"/>
       <c r="AF46" s="20"/>
-      <c r="AG46" s="70"/>
+      <c r="AG46" s="63"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="20"/>
       <c r="AJ46" s="20"/>
@@ -3839,11 +3771,11 @@
       <c r="AL46" s="19"/>
       <c r="AM46" s="20"/>
       <c r="AN46" s="20"/>
-      <c r="AO46" s="70"/>
+      <c r="AO46" s="63"/>
       <c r="AP46" s="19"/>
       <c r="AQ46" s="20"/>
       <c r="AR46" s="20"/>
-      <c r="AS46" s="70"/>
+      <c r="AS46" s="63"/>
       <c r="AT46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3856,7 +3788,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="72" t="s">
+      <c r="H47" s="65" t="s">
         <v>20</v>
       </c>
       <c r="I47" s="13"/>
@@ -3883,7 +3815,7 @@
       <c r="AD47" s="19"/>
       <c r="AE47" s="21"/>
       <c r="AF47" s="20"/>
-      <c r="AG47" s="70"/>
+      <c r="AG47" s="63"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="20"/>
       <c r="AJ47" s="20"/>
@@ -3891,18 +3823,18 @@
       <c r="AL47" s="19"/>
       <c r="AM47" s="21"/>
       <c r="AN47" s="20"/>
-      <c r="AO47" s="70"/>
+      <c r="AO47" s="63"/>
       <c r="AP47" s="19"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="20"/>
-      <c r="AS47" s="70"/>
+      <c r="AS47" s="63"/>
       <c r="AT47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="n">
         <v>7.3</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="12" t="n">
@@ -3919,7 +3851,7 @@
         <v>14</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="71" t="s">
+      <c r="H48" s="64" t="s">
         <v>20</v>
       </c>
       <c r="I48" s="13"/>
@@ -3945,7 +3877,7 @@
       <c r="AD48" s="19"/>
       <c r="AE48" s="20"/>
       <c r="AF48" s="20"/>
-      <c r="AG48" s="70"/>
+      <c r="AG48" s="63"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="20"/>
       <c r="AJ48" s="20"/>
@@ -3953,11 +3885,11 @@
       <c r="AL48" s="19"/>
       <c r="AM48" s="20"/>
       <c r="AN48" s="20"/>
-      <c r="AO48" s="70"/>
+      <c r="AO48" s="63"/>
       <c r="AP48" s="19"/>
       <c r="AQ48" s="20"/>
       <c r="AR48" s="20"/>
-      <c r="AS48" s="70"/>
+      <c r="AS48" s="63"/>
       <c r="AT48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3970,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="72" t="s">
+      <c r="H49" s="65" t="s">
         <v>20</v>
       </c>
       <c r="I49" s="20"/>
@@ -3997,7 +3929,7 @@
       <c r="AD49" s="19"/>
       <c r="AE49" s="21"/>
       <c r="AF49" s="20"/>
-      <c r="AG49" s="70"/>
+      <c r="AG49" s="63"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="20"/>
       <c r="AJ49" s="20"/>
@@ -4005,18 +3937,18 @@
       <c r="AL49" s="19"/>
       <c r="AM49" s="21"/>
       <c r="AN49" s="20"/>
-      <c r="AO49" s="70"/>
+      <c r="AO49" s="63"/>
       <c r="AP49" s="19"/>
       <c r="AQ49" s="21"/>
       <c r="AR49" s="20"/>
-      <c r="AS49" s="70"/>
+      <c r="AS49" s="63"/>
       <c r="AT49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="n">
         <v>7.4</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="60" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="12" t="n">
@@ -4040,7 +3972,7 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="19"/>
-      <c r="O50" s="53"/>
+      <c r="O50" s="49"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="19"/>
@@ -4058,7 +3990,7 @@
       <c r="AD50" s="19"/>
       <c r="AE50" s="20"/>
       <c r="AF50" s="20"/>
-      <c r="AG50" s="53"/>
+      <c r="AG50" s="49"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="20"/>
       <c r="AJ50" s="20"/>
@@ -4066,11 +3998,11 @@
       <c r="AL50" s="19"/>
       <c r="AM50" s="20"/>
       <c r="AN50" s="13"/>
-      <c r="AO50" s="70"/>
+      <c r="AO50" s="63"/>
       <c r="AP50" s="19"/>
       <c r="AQ50" s="20"/>
       <c r="AR50" s="20"/>
-      <c r="AS50" s="70"/>
+      <c r="AS50" s="63"/>
       <c r="AT50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4108,7 +4040,7 @@
       <c r="AD51" s="19"/>
       <c r="AE51" s="21"/>
       <c r="AF51" s="20"/>
-      <c r="AG51" s="70"/>
+      <c r="AG51" s="63"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>
@@ -4116,7 +4048,7 @@
       <c r="AL51" s="19"/>
       <c r="AM51" s="21"/>
       <c r="AN51" s="13"/>
-      <c r="AO51" s="70"/>
+      <c r="AO51" s="63"/>
       <c r="AP51" s="19"/>
       <c r="AQ51" s="21"/>
       <c r="AR51" s="20"/>
@@ -4127,7 +4059,7 @@
       <c r="A52" s="12" t="n">
         <v>7.5</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="60" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="12" t="n">
@@ -4169,7 +4101,7 @@
       <c r="AD52" s="19"/>
       <c r="AE52" s="20"/>
       <c r="AF52" s="20"/>
-      <c r="AG52" s="70"/>
+      <c r="AG52" s="63"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="20"/>
       <c r="AJ52" s="20"/>
@@ -4177,12 +4109,12 @@
       <c r="AL52" s="19"/>
       <c r="AM52" s="20"/>
       <c r="AN52" s="20"/>
-      <c r="AO52" s="70"/>
+      <c r="AO52" s="63"/>
       <c r="AP52" s="19"/>
       <c r="AQ52" s="20"/>
       <c r="AR52" s="20"/>
       <c r="AS52" s="20"/>
-      <c r="AT52" s="57"/>
+      <c r="AT52" s="52"/>
     </row>
     <row r="53" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="12"/>
@@ -4219,7 +4151,7 @@
       <c r="AD53" s="19"/>
       <c r="AE53" s="21"/>
       <c r="AF53" s="20"/>
-      <c r="AG53" s="70"/>
+      <c r="AG53" s="63"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="20"/>
       <c r="AJ53" s="20"/>
@@ -4227,7 +4159,7 @@
       <c r="AL53" s="19"/>
       <c r="AM53" s="21"/>
       <c r="AN53" s="20"/>
-      <c r="AO53" s="70"/>
+      <c r="AO53" s="63"/>
       <c r="AP53" s="19"/>
       <c r="AQ53" s="21"/>
       <c r="AR53" s="20"/>
@@ -4235,11 +4167,11 @@
       <c r="AT53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="48"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="48" t="n">
+      <c r="C54" s="5" t="n">
         <f aca="false">SUM(C55:C67)</f>
         <v>80</v>
       </c>
@@ -4247,11 +4179,11 @@
         <f aca="false">SUM(D55:D68)</f>
         <v>14</v>
       </c>
-      <c r="E54" s="73" t="n">
+      <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
         <v>-66</v>
       </c>
-      <c r="F54" s="74"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -4297,7 +4229,7 @@
       <c r="A55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="12" t="n">
@@ -4315,14 +4247,11 @@
       <c r="F55" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="71" t="s">
+      <c r="G55" s="13"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
       <c r="M55" s="13"/>
       <c r="N55" s="19"/>
       <c r="O55" s="21"/>
@@ -4360,7 +4289,7 @@
     </row>
     <row r="56" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="12"/>
-      <c r="B56" s="75"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -4372,7 +4301,7 @@
       <c r="I56" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J56" s="60"/>
+      <c r="J56" s="54"/>
       <c r="K56" s="13"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
@@ -4414,7 +4343,7 @@
       <c r="A57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="68" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="12" t="n">
@@ -4434,21 +4363,21 @@
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="53" t="s">
+      <c r="I57" s="12"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="49" t="s">
         <v>51</v>
       </c>
       <c r="T57" s="20"/>
-      <c r="U57" s="78"/>
+      <c r="U57" s="70"/>
       <c r="V57" s="19"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
@@ -4477,7 +4406,7 @@
     </row>
     <row r="58" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="12"/>
-      <c r="B58" s="75"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -4489,18 +4418,18 @@
       <c r="I58" s="26"/>
       <c r="J58" s="19"/>
       <c r="K58" s="20"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="80"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="62"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
       <c r="V58" s="19"/>
-      <c r="W58" s="81"/>
+      <c r="W58" s="54"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="19"/>
@@ -4529,7 +4458,7 @@
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C59" s="12" t="n">
@@ -4550,19 +4479,18 @@
       <c r="I59" s="13"/>
       <c r="J59" s="19"/>
       <c r="K59" s="20"/>
-      <c r="M59" s="47"/>
+      <c r="M59" s="45"/>
       <c r="N59" s="19"/>
       <c r="O59" s="21"/>
       <c r="P59" s="20"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="53" t="s">
+      <c r="Q59" s="72"/>
+      <c r="R59" s="62"/>
+      <c r="T59" s="49" t="s">
         <v>51</v>
       </c>
       <c r="U59" s="13"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="81"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="54"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="19"/>
@@ -4589,7 +4517,7 @@
     </row>
     <row r="60" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="12"/>
-      <c r="B60" s="75"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -4611,11 +4539,11 @@
       <c r="S60" s="21"/>
       <c r="T60" s="20"/>
       <c r="U60" s="13"/>
-      <c r="V60" s="80"/>
+      <c r="V60" s="62"/>
       <c r="W60" s="12"/>
-      <c r="X60" s="81"/>
+      <c r="X60" s="54"/>
       <c r="Y60" s="13"/>
-      <c r="Z60" s="80"/>
+      <c r="Z60" s="62"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="13"/>
@@ -4641,7 +4569,7 @@
       <c r="A61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="68" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="14" t="n">
@@ -4670,25 +4598,25 @@
       <c r="Q61" s="13"/>
       <c r="R61" s="19"/>
       <c r="S61" s="21"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="53"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="44"/>
-      <c r="AD61" s="57"/>
-      <c r="AE61" s="56"/>
-      <c r="AF61" s="56"/>
-      <c r="AG61" s="65"/>
-      <c r="AH61" s="53"/>
-      <c r="AI61" s="56"/>
-      <c r="AJ61" s="56"/>
-      <c r="AK61" s="65"/>
-      <c r="AL61" s="53" t="s">
+      <c r="T61" s="20"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="58"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="58"/>
+      <c r="AL61" s="49" t="s">
         <v>51</v>
       </c>
       <c r="AM61" s="20"/>
@@ -4702,7 +4630,7 @@
     </row>
     <row r="62" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="12"/>
-      <c r="B62" s="75"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -4721,26 +4649,26 @@
       <c r="P62" s="20"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="19"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="84"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="74"/>
       <c r="U62" s="13"/>
       <c r="V62" s="19"/>
       <c r="W62" s="13"/>
-      <c r="X62" s="79"/>
-      <c r="Y62" s="79"/>
-      <c r="Z62" s="80"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="62"/>
       <c r="AA62" s="13"/>
-      <c r="AB62" s="79"/>
-      <c r="AC62" s="79"/>
-      <c r="AD62" s="80"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="62"/>
       <c r="AE62" s="13"/>
       <c r="AF62" s="13"/>
       <c r="AG62" s="13"/>
-      <c r="AH62" s="80"/>
+      <c r="AH62" s="62"/>
       <c r="AI62" s="12"/>
-      <c r="AJ62" s="85"/>
+      <c r="AJ62" s="75"/>
       <c r="AK62" s="13"/>
-      <c r="AL62" s="80"/>
+      <c r="AL62" s="62"/>
       <c r="AM62" s="20"/>
       <c r="AN62" s="20"/>
       <c r="AO62" s="22"/>
@@ -4754,7 +4682,7 @@
       <c r="A63" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C63" s="12" t="n">
@@ -4798,16 +4726,16 @@
       <c r="AF63" s="20"/>
       <c r="AG63" s="22"/>
       <c r="AH63" s="19"/>
-      <c r="AI63" s="58"/>
-      <c r="AJ63" s="41"/>
-      <c r="AK63" s="58"/>
-      <c r="AL63" s="52"/>
-      <c r="AM63" s="56"/>
-      <c r="AN63" s="56"/>
-      <c r="AO63" s="65"/>
-      <c r="AP63" s="57"/>
-      <c r="AQ63" s="57"/>
-      <c r="AR63" s="86" t="s">
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="20"/>
+      <c r="AK63" s="13"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="51"/>
+      <c r="AN63" s="51"/>
+      <c r="AO63" s="58"/>
+      <c r="AP63" s="52"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="76" t="s">
         <v>51</v>
       </c>
       <c r="AS63" s="22"/>
@@ -4815,7 +4743,7 @@
     </row>
     <row r="64" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="12"/>
-      <c r="B64" s="75"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -4851,23 +4779,23 @@
       <c r="AG64" s="22"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="13"/>
-      <c r="AJ64" s="79"/>
-      <c r="AK64" s="79"/>
-      <c r="AL64" s="80"/>
+      <c r="AJ64" s="71"/>
+      <c r="AK64" s="71"/>
+      <c r="AL64" s="62"/>
       <c r="AM64" s="13"/>
-      <c r="AN64" s="79"/>
-      <c r="AO64" s="79"/>
-      <c r="AP64" s="80"/>
+      <c r="AN64" s="71"/>
+      <c r="AO64" s="71"/>
+      <c r="AP64" s="62"/>
       <c r="AQ64" s="13"/>
       <c r="AR64" s="20"/>
       <c r="AS64" s="22"/>
-      <c r="AT64" s="80"/>
+      <c r="AT64" s="62"/>
     </row>
     <row r="65" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="68" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="14" t="n">
@@ -4921,15 +4849,14 @@
       <c r="AO65" s="22"/>
       <c r="AP65" s="19"/>
       <c r="AQ65" s="13"/>
-      <c r="AR65" s="0"/>
-      <c r="AS65" s="87" t="s">
+      <c r="AS65" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="AT65" s="80"/>
+      <c r="AT65" s="62"/>
     </row>
     <row r="66" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="12"/>
-      <c r="B66" s="75"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -4963,7 +4890,7 @@
       <c r="AE66" s="13"/>
       <c r="AF66" s="13"/>
       <c r="AG66" s="22"/>
-      <c r="AH66" s="80"/>
+      <c r="AH66" s="62"/>
       <c r="AI66" s="20"/>
       <c r="AJ66" s="20"/>
       <c r="AK66" s="13"/>
@@ -4971,122 +4898,122 @@
       <c r="AM66" s="20"/>
       <c r="AN66" s="20"/>
       <c r="AO66" s="22"/>
-      <c r="AP66" s="80"/>
+      <c r="AP66" s="62"/>
       <c r="AQ66" s="20"/>
-      <c r="AR66" s="79"/>
+      <c r="AR66" s="71"/>
       <c r="AS66" s="22"/>
-      <c r="AT66" s="80"/>
+      <c r="AT66" s="62"/>
     </row>
     <row r="67" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="88" t="s">
+      <c r="A67" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="90" t="n">
+      <c r="C67" s="80" t="n">
         <f aca="false">SUM(C43)</f>
         <v>10</v>
       </c>
-      <c r="D67" s="88" t="n">
+      <c r="D67" s="78" t="n">
         <f aca="false">SUM(D43)</f>
         <v>4</v>
       </c>
-      <c r="E67" s="88" t="n">
+      <c r="E67" s="78" t="n">
         <f aca="false">SUM(E43)</f>
         <v>-6</v>
       </c>
-      <c r="F67" s="91"/>
-      <c r="G67" s="92" t="s">
+      <c r="F67" s="81"/>
+      <c r="G67" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="92"/>
-      <c r="P67" s="92"/>
-      <c r="Q67" s="92"/>
-      <c r="R67" s="92"/>
-      <c r="S67" s="92"/>
-      <c r="T67" s="92"/>
-      <c r="U67" s="92"/>
-      <c r="V67" s="92"/>
-      <c r="W67" s="92"/>
-      <c r="X67" s="92"/>
-      <c r="Y67" s="92"/>
-      <c r="Z67" s="92"/>
-      <c r="AA67" s="92"/>
-      <c r="AB67" s="92"/>
-      <c r="AC67" s="92"/>
-      <c r="AD67" s="92"/>
-      <c r="AE67" s="92"/>
-      <c r="AF67" s="92"/>
-      <c r="AG67" s="92"/>
-      <c r="AH67" s="92"/>
-      <c r="AI67" s="92"/>
-      <c r="AJ67" s="92"/>
-      <c r="AK67" s="92"/>
-      <c r="AL67" s="92"/>
-      <c r="AM67" s="92"/>
-      <c r="AN67" s="92"/>
-      <c r="AO67" s="92"/>
-      <c r="AP67" s="92"/>
-      <c r="AQ67" s="92"/>
-      <c r="AR67" s="92"/>
-      <c r="AS67" s="92"/>
-      <c r="AT67" s="92"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="82"/>
+      <c r="P67" s="82"/>
+      <c r="Q67" s="82"/>
+      <c r="R67" s="82"/>
+      <c r="S67" s="82"/>
+      <c r="T67" s="82"/>
+      <c r="U67" s="82"/>
+      <c r="V67" s="82"/>
+      <c r="W67" s="82"/>
+      <c r="X67" s="82"/>
+      <c r="Y67" s="82"/>
+      <c r="Z67" s="82"/>
+      <c r="AA67" s="82"/>
+      <c r="AB67" s="82"/>
+      <c r="AC67" s="82"/>
+      <c r="AD67" s="82"/>
+      <c r="AE67" s="82"/>
+      <c r="AF67" s="82"/>
+      <c r="AG67" s="82"/>
+      <c r="AH67" s="82"/>
+      <c r="AI67" s="82"/>
+      <c r="AJ67" s="82"/>
+      <c r="AK67" s="82"/>
+      <c r="AL67" s="82"/>
+      <c r="AM67" s="82"/>
+      <c r="AN67" s="82"/>
+      <c r="AO67" s="82"/>
+      <c r="AP67" s="82"/>
+      <c r="AQ67" s="82"/>
+      <c r="AR67" s="82"/>
+      <c r="AS67" s="82"/>
+      <c r="AT67" s="82"/>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="88"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="92"/>
-      <c r="O68" s="92"/>
-      <c r="P68" s="92"/>
-      <c r="Q68" s="92"/>
-      <c r="R68" s="92"/>
-      <c r="S68" s="92"/>
-      <c r="T68" s="92"/>
-      <c r="U68" s="92"/>
-      <c r="V68" s="92"/>
-      <c r="W68" s="92"/>
-      <c r="X68" s="92"/>
-      <c r="Y68" s="92"/>
-      <c r="Z68" s="92"/>
-      <c r="AA68" s="92"/>
-      <c r="AB68" s="92"/>
-      <c r="AC68" s="92"/>
-      <c r="AD68" s="92"/>
-      <c r="AE68" s="92"/>
-      <c r="AF68" s="92"/>
-      <c r="AG68" s="92"/>
-      <c r="AH68" s="92"/>
-      <c r="AI68" s="92"/>
-      <c r="AJ68" s="92"/>
-      <c r="AK68" s="92"/>
-      <c r="AL68" s="92"/>
-      <c r="AM68" s="92"/>
-      <c r="AN68" s="92"/>
-      <c r="AO68" s="92"/>
-      <c r="AP68" s="92"/>
-      <c r="AQ68" s="92"/>
-      <c r="AR68" s="92"/>
-      <c r="AS68" s="92"/>
-      <c r="AT68" s="92"/>
+      <c r="A68" s="78"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
+      <c r="P68" s="82"/>
+      <c r="Q68" s="82"/>
+      <c r="R68" s="82"/>
+      <c r="S68" s="82"/>
+      <c r="T68" s="82"/>
+      <c r="U68" s="82"/>
+      <c r="V68" s="82"/>
+      <c r="W68" s="82"/>
+      <c r="X68" s="82"/>
+      <c r="Y68" s="82"/>
+      <c r="Z68" s="82"/>
+      <c r="AA68" s="82"/>
+      <c r="AB68" s="82"/>
+      <c r="AC68" s="82"/>
+      <c r="AD68" s="82"/>
+      <c r="AE68" s="82"/>
+      <c r="AF68" s="82"/>
+      <c r="AG68" s="82"/>
+      <c r="AH68" s="82"/>
+      <c r="AI68" s="82"/>
+      <c r="AJ68" s="82"/>
+      <c r="AK68" s="82"/>
+      <c r="AL68" s="82"/>
+      <c r="AM68" s="82"/>
+      <c r="AN68" s="82"/>
+      <c r="AO68" s="82"/>
+      <c r="AP68" s="82"/>
+      <c r="AQ68" s="82"/>
+      <c r="AR68" s="82"/>
+      <c r="AS68" s="82"/>
+      <c r="AT68" s="82"/>
     </row>
     <row r="69" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="33"/>
@@ -5143,30 +5070,6 @@
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="M70" s="0"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
-      <c r="R70" s="0"/>
-      <c r="S70" s="0"/>
-      <c r="T70" s="0"/>
-      <c r="U70" s="0"/>
-      <c r="V70" s="0"/>
-      <c r="W70" s="0"/>
-      <c r="X70" s="0"/>
-      <c r="Y70" s="0"/>
-      <c r="Z70" s="0"/>
-      <c r="AA70" s="0"/>
-      <c r="AB70" s="0"/>
-      <c r="AC70" s="0"/>
-      <c r="AD70" s="0"/>
       <c r="AE70" s="33"/>
       <c r="AF70" s="33"/>
       <c r="AG70" s="33"/>
@@ -5191,34 +5094,14 @@
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="93" t="s">
+      <c r="G71" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="94" t="s">
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="K71" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L71" s="0"/>
-      <c r="M71" s="0"/>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-      <c r="P71" s="0"/>
-      <c r="Q71" s="0"/>
-      <c r="R71" s="0"/>
-      <c r="S71" s="0"/>
-      <c r="T71" s="0"/>
-      <c r="U71" s="0"/>
-      <c r="V71" s="0"/>
-      <c r="W71" s="0"/>
-      <c r="X71" s="0"/>
-      <c r="Y71" s="0"/>
-      <c r="Z71" s="0"/>
-      <c r="AA71" s="0"/>
-      <c r="AB71" s="0"/>
-      <c r="AC71" s="0"/>
-      <c r="AD71" s="0"/>
       <c r="AE71" s="33"/>
       <c r="AF71" s="33"/>
       <c r="AG71" s="33"/>
@@ -5243,13 +5126,13 @@
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="96" t="s">
+      <c r="G72" s="84"/>
+      <c r="H72" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="95"/>
+      <c r="I72" s="84"/>
       <c r="J72" s="33"/>
-      <c r="K72" s="97" t="s">
+      <c r="K72" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L72" s="33"/>
@@ -5295,32 +5178,32 @@
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
       <c r="J73" s="33"/>
-      <c r="K73" s="98" t="s">
+      <c r="K73" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="L73" s="98"/>
-      <c r="M73" s="98"/>
-      <c r="N73" s="98"/>
-      <c r="O73" s="98"/>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="98"/>
-      <c r="R73" s="98"/>
-      <c r="S73" s="98"/>
-      <c r="T73" s="98"/>
-      <c r="U73" s="98"/>
-      <c r="V73" s="98"/>
-      <c r="W73" s="98"/>
-      <c r="X73" s="98"/>
-      <c r="Y73" s="98"/>
-      <c r="Z73" s="98"/>
-      <c r="AA73" s="98"/>
-      <c r="AB73" s="98"/>
-      <c r="AC73" s="98"/>
-      <c r="AD73" s="98"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="86"/>
+      <c r="Q73" s="86"/>
+      <c r="R73" s="86"/>
+      <c r="S73" s="86"/>
+      <c r="T73" s="86"/>
+      <c r="U73" s="86"/>
+      <c r="V73" s="86"/>
+      <c r="W73" s="86"/>
+      <c r="X73" s="86"/>
+      <c r="Y73" s="86"/>
+      <c r="Z73" s="86"/>
+      <c r="AA73" s="86"/>
+      <c r="AB73" s="86"/>
+      <c r="AC73" s="86"/>
+      <c r="AD73" s="86"/>
       <c r="AE73" s="33"/>
       <c r="AF73" s="33"/>
       <c r="AG73" s="33"/>
@@ -5345,32 +5228,32 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="95"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
       <c r="J74" s="33"/>
-      <c r="K74" s="98" t="s">
+      <c r="K74" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
-      <c r="O74" s="98"/>
-      <c r="P74" s="98"/>
-      <c r="Q74" s="98"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="98"/>
-      <c r="U74" s="98"/>
-      <c r="V74" s="98"/>
-      <c r="W74" s="98"/>
-      <c r="X74" s="98"/>
-      <c r="Y74" s="98"/>
-      <c r="Z74" s="98"/>
-      <c r="AA74" s="98"/>
-      <c r="AB74" s="98"/>
-      <c r="AC74" s="98"/>
-      <c r="AD74" s="98"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="86"/>
+      <c r="O74" s="86"/>
+      <c r="P74" s="86"/>
+      <c r="Q74" s="86"/>
+      <c r="R74" s="86"/>
+      <c r="S74" s="86"/>
+      <c r="T74" s="86"/>
+      <c r="U74" s="86"/>
+      <c r="V74" s="86"/>
+      <c r="W74" s="86"/>
+      <c r="X74" s="86"/>
+      <c r="Y74" s="86"/>
+      <c r="Z74" s="86"/>
+      <c r="AA74" s="86"/>
+      <c r="AB74" s="86"/>
+      <c r="AC74" s="86"/>
+      <c r="AD74" s="86"/>
       <c r="AE74" s="33"/>
       <c r="AF74" s="33"/>
       <c r="AG74" s="33"/>
@@ -5389,142 +5272,64 @@
       <c r="AT74" s="33"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="99" t="s">
+      <c r="G75" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
       <c r="J75" s="33"/>
-      <c r="K75" s="98" t="s">
+      <c r="K75" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="L75" s="98"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="98"/>
-      <c r="O75" s="98"/>
-      <c r="P75" s="98"/>
-      <c r="Q75" s="98"/>
-      <c r="R75" s="98"/>
-      <c r="S75" s="98"/>
-      <c r="T75" s="98"/>
-      <c r="U75" s="98"/>
-      <c r="V75" s="98"/>
-      <c r="W75" s="98"/>
-      <c r="X75" s="98"/>
-      <c r="Y75" s="98"/>
-      <c r="Z75" s="98"/>
-      <c r="AA75" s="98"/>
-      <c r="AB75" s="98"/>
-      <c r="AC75" s="98"/>
-      <c r="AD75" s="98"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="86"/>
+      <c r="O75" s="86"/>
+      <c r="P75" s="86"/>
+      <c r="Q75" s="86"/>
+      <c r="R75" s="86"/>
+      <c r="S75" s="86"/>
+      <c r="T75" s="86"/>
+      <c r="U75" s="86"/>
+      <c r="V75" s="86"/>
+      <c r="W75" s="86"/>
+      <c r="X75" s="86"/>
+      <c r="Y75" s="86"/>
+      <c r="Z75" s="86"/>
+      <c r="AA75" s="86"/>
+      <c r="AB75" s="86"/>
+      <c r="AC75" s="86"/>
+      <c r="AD75" s="86"/>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="100" t="s">
+      <c r="G76" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
       <c r="J76" s="33"/>
-      <c r="K76" s="98" t="s">
+      <c r="K76" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
-      <c r="O76" s="98"/>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="98"/>
-      <c r="S76" s="98"/>
-      <c r="T76" s="98"/>
-      <c r="U76" s="98"/>
-      <c r="V76" s="98"/>
-      <c r="W76" s="98"/>
-      <c r="X76" s="98"/>
-      <c r="Y76" s="98"/>
-      <c r="Z76" s="98"/>
-      <c r="AA76" s="98"/>
-      <c r="AB76" s="98"/>
-      <c r="AC76" s="98"/>
-      <c r="AD76" s="98"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="0"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
-      <c r="T77" s="0"/>
-      <c r="U77" s="0"/>
-      <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0"/>
-      <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
-      <c r="AA77" s="0"/>
-      <c r="AB77" s="0"/>
-      <c r="AC77" s="0"/>
-      <c r="AD77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="0"/>
-      <c r="H78" s="0"/>
-      <c r="I78" s="0"/>
-      <c r="J78" s="0"/>
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
-      <c r="M78" s="0"/>
-      <c r="N78" s="0"/>
-      <c r="O78" s="0"/>
-      <c r="P78" s="0"/>
-      <c r="Q78" s="0"/>
-      <c r="R78" s="0"/>
-      <c r="S78" s="0"/>
-      <c r="T78" s="0"/>
-      <c r="U78" s="0"/>
-      <c r="V78" s="0"/>
-      <c r="W78" s="0"/>
-      <c r="X78" s="0"/>
-      <c r="Y78" s="0"/>
-      <c r="Z78" s="0"/>
-      <c r="AA78" s="0"/>
-      <c r="AB78" s="0"/>
-      <c r="AC78" s="0"/>
-      <c r="AD78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="0"/>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0"/>
-      <c r="P79" s="0"/>
-      <c r="Q79" s="0"/>
-      <c r="R79" s="0"/>
-      <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
-      <c r="U79" s="0"/>
-      <c r="V79" s="0"/>
-      <c r="W79" s="0"/>
-      <c r="X79" s="0"/>
-      <c r="Y79" s="0"/>
-      <c r="Z79" s="0"/>
-      <c r="AA79" s="0"/>
-      <c r="AB79" s="0"/>
-      <c r="AC79" s="0"/>
-      <c r="AD79" s="0"/>
+      <c r="L76" s="86"/>
+      <c r="M76" s="86"/>
+      <c r="N76" s="86"/>
+      <c r="O76" s="86"/>
+      <c r="P76" s="86"/>
+      <c r="Q76" s="86"/>
+      <c r="R76" s="86"/>
+      <c r="S76" s="86"/>
+      <c r="T76" s="86"/>
+      <c r="U76" s="86"/>
+      <c r="V76" s="86"/>
+      <c r="W76" s="86"/>
+      <c r="X76" s="86"/>
+      <c r="Y76" s="86"/>
+      <c r="Z76" s="86"/>
+      <c r="AA76" s="86"/>
+      <c r="AB76" s="86"/>
+      <c r="AC76" s="86"/>
+      <c r="AD76" s="86"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ20" activeCellId="0" sqref="BJ20"/>
+      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">SUM(D9:D18)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">D8-C8</f>
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="10"/>
@@ -1975,11 +1975,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="12" t="n">
         <f aca="false">D15-C15</f>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>14</v>
@@ -2043,8 +2043,8 @@
         <v>20</v>
       </c>
       <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="20"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
       <c r="T16" s="20"/>
@@ -2155,7 +2155,7 @@
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="45"/>
-      <c r="R18" s="19"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="13"/>
@@ -4022,7 +4022,7 @@
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="19"/>
-      <c r="O51" s="21"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="19"/>
@@ -4177,11 +4177,11 @@
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">SUM(D55:D68)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
-        <v>-66</v>
+        <v>-61</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="10"/>
@@ -4352,11 +4352,11 @@
       </c>
       <c r="D57" s="12" t="n">
         <f aca="false">D8</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E57" s="12" t="n">
         <f aca="false">D57-C57</f>
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>14</v>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nr.</t>
   </si>
@@ -529,7 +529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -823,10 +823,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1138,7 +1134,7 @@
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,11 +1570,11 @@
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">SUM(D9:D18)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">D8-C8</f>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="10"/>
@@ -2086,11 +2082,11 @@
         <v>4</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="12" t="n">
         <f aca="false">D17-C17</f>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>14</v>
@@ -2328,7 +2324,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="19"/>
-      <c r="S21" s="21"/>
+      <c r="S21" s="24"/>
       <c r="T21" s="20"/>
       <c r="U21" s="13"/>
       <c r="V21" s="34"/>
@@ -2500,9 +2496,9 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="19"/>
       <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="13"/>
@@ -4177,11 +4173,11 @@
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">SUM(D55:D68)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="10"/>
@@ -4352,11 +4348,11 @@
       </c>
       <c r="D57" s="12" t="n">
         <f aca="false">D8</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E57" s="12" t="n">
         <f aca="false">D57-C57</f>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>14</v>
@@ -4416,15 +4412,17 @@
       <c r="G58" s="20"/>
       <c r="H58" s="13"/>
       <c r="I58" s="26"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="62"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S58" s="13"/>
       <c r="T58" s="71"/>
       <c r="U58" s="71"/>
@@ -4536,7 +4534,9 @@
       <c r="P60" s="20"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="19"/>
-      <c r="S60" s="21"/>
+      <c r="S60" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="T60" s="20"/>
       <c r="U60" s="13"/>
       <c r="V60" s="62"/>
@@ -4650,9 +4650,9 @@
       <c r="Q62" s="13"/>
       <c r="R62" s="19"/>
       <c r="S62" s="73"/>
-      <c r="T62" s="74"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="19"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
       <c r="W62" s="13"/>
       <c r="X62" s="71"/>
       <c r="Y62" s="71"/>
@@ -4666,7 +4666,7 @@
       <c r="AG62" s="13"/>
       <c r="AH62" s="62"/>
       <c r="AI62" s="12"/>
-      <c r="AJ62" s="75"/>
+      <c r="AJ62" s="74"/>
       <c r="AK62" s="13"/>
       <c r="AL62" s="62"/>
       <c r="AM62" s="20"/>
@@ -4735,7 +4735,7 @@
       <c r="AO63" s="58"/>
       <c r="AP63" s="52"/>
       <c r="AQ63" s="52"/>
-      <c r="AR63" s="76" t="s">
+      <c r="AR63" s="75" t="s">
         <v>51</v>
       </c>
       <c r="AS63" s="22"/>
@@ -4849,7 +4849,7 @@
       <c r="AO65" s="22"/>
       <c r="AP65" s="19"/>
       <c r="AQ65" s="13"/>
-      <c r="AS65" s="77" t="s">
+      <c r="AS65" s="76" t="s">
         <v>51</v>
       </c>
       <c r="AT65" s="62"/>
@@ -4905,115 +4905,115 @@
       <c r="AT66" s="62"/>
     </row>
     <row r="67" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="80" t="n">
+      <c r="C67" s="79" t="n">
         <f aca="false">SUM(C43)</f>
         <v>10</v>
       </c>
-      <c r="D67" s="78" t="n">
+      <c r="D67" s="77" t="n">
         <f aca="false">SUM(D43)</f>
         <v>4</v>
       </c>
-      <c r="E67" s="78" t="n">
+      <c r="E67" s="77" t="n">
         <f aca="false">SUM(E43)</f>
         <v>-6</v>
       </c>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82" t="s">
+      <c r="F67" s="80"/>
+      <c r="G67" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="82"/>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="82"/>
-      <c r="T67" s="82"/>
-      <c r="U67" s="82"/>
-      <c r="V67" s="82"/>
-      <c r="W67" s="82"/>
-      <c r="X67" s="82"/>
-      <c r="Y67" s="82"/>
-      <c r="Z67" s="82"/>
-      <c r="AA67" s="82"/>
-      <c r="AB67" s="82"/>
-      <c r="AC67" s="82"/>
-      <c r="AD67" s="82"/>
-      <c r="AE67" s="82"/>
-      <c r="AF67" s="82"/>
-      <c r="AG67" s="82"/>
-      <c r="AH67" s="82"/>
-      <c r="AI67" s="82"/>
-      <c r="AJ67" s="82"/>
-      <c r="AK67" s="82"/>
-      <c r="AL67" s="82"/>
-      <c r="AM67" s="82"/>
-      <c r="AN67" s="82"/>
-      <c r="AO67" s="82"/>
-      <c r="AP67" s="82"/>
-      <c r="AQ67" s="82"/>
-      <c r="AR67" s="82"/>
-      <c r="AS67" s="82"/>
-      <c r="AT67" s="82"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="81"/>
+      <c r="U67" s="81"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="81"/>
+      <c r="X67" s="81"/>
+      <c r="Y67" s="81"/>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="81"/>
+      <c r="AB67" s="81"/>
+      <c r="AC67" s="81"/>
+      <c r="AD67" s="81"/>
+      <c r="AE67" s="81"/>
+      <c r="AF67" s="81"/>
+      <c r="AG67" s="81"/>
+      <c r="AH67" s="81"/>
+      <c r="AI67" s="81"/>
+      <c r="AJ67" s="81"/>
+      <c r="AK67" s="81"/>
+      <c r="AL67" s="81"/>
+      <c r="AM67" s="81"/>
+      <c r="AN67" s="81"/>
+      <c r="AO67" s="81"/>
+      <c r="AP67" s="81"/>
+      <c r="AQ67" s="81"/>
+      <c r="AR67" s="81"/>
+      <c r="AS67" s="81"/>
+      <c r="AT67" s="81"/>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="78"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
-      <c r="P68" s="82"/>
-      <c r="Q68" s="82"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="82"/>
-      <c r="T68" s="82"/>
-      <c r="U68" s="82"/>
-      <c r="V68" s="82"/>
-      <c r="W68" s="82"/>
-      <c r="X68" s="82"/>
-      <c r="Y68" s="82"/>
-      <c r="Z68" s="82"/>
-      <c r="AA68" s="82"/>
-      <c r="AB68" s="82"/>
-      <c r="AC68" s="82"/>
-      <c r="AD68" s="82"/>
-      <c r="AE68" s="82"/>
-      <c r="AF68" s="82"/>
-      <c r="AG68" s="82"/>
-      <c r="AH68" s="82"/>
-      <c r="AI68" s="82"/>
-      <c r="AJ68" s="82"/>
-      <c r="AK68" s="82"/>
-      <c r="AL68" s="82"/>
-      <c r="AM68" s="82"/>
-      <c r="AN68" s="82"/>
-      <c r="AO68" s="82"/>
-      <c r="AP68" s="82"/>
-      <c r="AQ68" s="82"/>
-      <c r="AR68" s="82"/>
-      <c r="AS68" s="82"/>
-      <c r="AT68" s="82"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="81"/>
+      <c r="U68" s="81"/>
+      <c r="V68" s="81"/>
+      <c r="W68" s="81"/>
+      <c r="X68" s="81"/>
+      <c r="Y68" s="81"/>
+      <c r="Z68" s="81"/>
+      <c r="AA68" s="81"/>
+      <c r="AB68" s="81"/>
+      <c r="AC68" s="81"/>
+      <c r="AD68" s="81"/>
+      <c r="AE68" s="81"/>
+      <c r="AF68" s="81"/>
+      <c r="AG68" s="81"/>
+      <c r="AH68" s="81"/>
+      <c r="AI68" s="81"/>
+      <c r="AJ68" s="81"/>
+      <c r="AK68" s="81"/>
+      <c r="AL68" s="81"/>
+      <c r="AM68" s="81"/>
+      <c r="AN68" s="81"/>
+      <c r="AO68" s="81"/>
+      <c r="AP68" s="81"/>
+      <c r="AQ68" s="81"/>
+      <c r="AR68" s="81"/>
+      <c r="AS68" s="81"/>
+      <c r="AT68" s="81"/>
     </row>
     <row r="69" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="33"/>
@@ -5094,11 +5094,11 @@
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="83" t="s">
+      <c r="G71" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
       <c r="K71" s="33" t="s">
         <v>64</v>
       </c>
@@ -5126,11 +5126,11 @@
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="85" t="s">
+      <c r="G72" s="83"/>
+      <c r="H72" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="84"/>
+      <c r="I72" s="83"/>
       <c r="J72" s="33"/>
       <c r="K72" s="33" t="s">
         <v>65</v>
@@ -5178,32 +5178,32 @@
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
       <c r="J73" s="33"/>
-      <c r="K73" s="86" t="s">
+      <c r="K73" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="L73" s="86"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="86"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="86"/>
-      <c r="Q73" s="86"/>
-      <c r="R73" s="86"/>
-      <c r="S73" s="86"/>
-      <c r="T73" s="86"/>
-      <c r="U73" s="86"/>
-      <c r="V73" s="86"/>
-      <c r="W73" s="86"/>
-      <c r="X73" s="86"/>
-      <c r="Y73" s="86"/>
-      <c r="Z73" s="86"/>
-      <c r="AA73" s="86"/>
-      <c r="AB73" s="86"/>
-      <c r="AC73" s="86"/>
-      <c r="AD73" s="86"/>
+      <c r="L73" s="85"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="85"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+      <c r="Q73" s="85"/>
+      <c r="R73" s="85"/>
+      <c r="S73" s="85"/>
+      <c r="T73" s="85"/>
+      <c r="U73" s="85"/>
+      <c r="V73" s="85"/>
+      <c r="W73" s="85"/>
+      <c r="X73" s="85"/>
+      <c r="Y73" s="85"/>
+      <c r="Z73" s="85"/>
+      <c r="AA73" s="85"/>
+      <c r="AB73" s="85"/>
+      <c r="AC73" s="85"/>
+      <c r="AD73" s="85"/>
       <c r="AE73" s="33"/>
       <c r="AF73" s="33"/>
       <c r="AG73" s="33"/>
@@ -5228,32 +5228,32 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
       <c r="J74" s="33"/>
-      <c r="K74" s="86" t="s">
+      <c r="K74" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="86"/>
-      <c r="O74" s="86"/>
-      <c r="P74" s="86"/>
-      <c r="Q74" s="86"/>
-      <c r="R74" s="86"/>
-      <c r="S74" s="86"/>
-      <c r="T74" s="86"/>
-      <c r="U74" s="86"/>
-      <c r="V74" s="86"/>
-      <c r="W74" s="86"/>
-      <c r="X74" s="86"/>
-      <c r="Y74" s="86"/>
-      <c r="Z74" s="86"/>
-      <c r="AA74" s="86"/>
-      <c r="AB74" s="86"/>
-      <c r="AC74" s="86"/>
-      <c r="AD74" s="86"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="85"/>
+      <c r="R74" s="85"/>
+      <c r="S74" s="85"/>
+      <c r="T74" s="85"/>
+      <c r="U74" s="85"/>
+      <c r="V74" s="85"/>
+      <c r="W74" s="85"/>
+      <c r="X74" s="85"/>
+      <c r="Y74" s="85"/>
+      <c r="Z74" s="85"/>
+      <c r="AA74" s="85"/>
+      <c r="AB74" s="85"/>
+      <c r="AC74" s="85"/>
+      <c r="AD74" s="85"/>
       <c r="AE74" s="33"/>
       <c r="AF74" s="33"/>
       <c r="AG74" s="33"/>
@@ -5272,64 +5272,64 @@
       <c r="AT74" s="33"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="87" t="s">
+      <c r="G75" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
       <c r="J75" s="33"/>
-      <c r="K75" s="86" t="s">
+      <c r="K75" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="L75" s="86"/>
-      <c r="M75" s="86"/>
-      <c r="N75" s="86"/>
-      <c r="O75" s="86"/>
-      <c r="P75" s="86"/>
-      <c r="Q75" s="86"/>
-      <c r="R75" s="86"/>
-      <c r="S75" s="86"/>
-      <c r="T75" s="86"/>
-      <c r="U75" s="86"/>
-      <c r="V75" s="86"/>
-      <c r="W75" s="86"/>
-      <c r="X75" s="86"/>
-      <c r="Y75" s="86"/>
-      <c r="Z75" s="86"/>
-      <c r="AA75" s="86"/>
-      <c r="AB75" s="86"/>
-      <c r="AC75" s="86"/>
-      <c r="AD75" s="86"/>
+      <c r="L75" s="85"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="85"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="85"/>
+      <c r="S75" s="85"/>
+      <c r="T75" s="85"/>
+      <c r="U75" s="85"/>
+      <c r="V75" s="85"/>
+      <c r="W75" s="85"/>
+      <c r="X75" s="85"/>
+      <c r="Y75" s="85"/>
+      <c r="Z75" s="85"/>
+      <c r="AA75" s="85"/>
+      <c r="AB75" s="85"/>
+      <c r="AC75" s="85"/>
+      <c r="AD75" s="85"/>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="88" t="s">
+      <c r="G76" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
       <c r="J76" s="33"/>
-      <c r="K76" s="86" t="s">
+      <c r="K76" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="L76" s="86"/>
-      <c r="M76" s="86"/>
-      <c r="N76" s="86"/>
-      <c r="O76" s="86"/>
-      <c r="P76" s="86"/>
-      <c r="Q76" s="86"/>
-      <c r="R76" s="86"/>
-      <c r="S76" s="86"/>
-      <c r="T76" s="86"/>
-      <c r="U76" s="86"/>
-      <c r="V76" s="86"/>
-      <c r="W76" s="86"/>
-      <c r="X76" s="86"/>
-      <c r="Y76" s="86"/>
-      <c r="Z76" s="86"/>
-      <c r="AA76" s="86"/>
-      <c r="AB76" s="86"/>
-      <c r="AC76" s="86"/>
-      <c r="AD76" s="86"/>
+      <c r="L76" s="85"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="85"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="85"/>
+      <c r="R76" s="85"/>
+      <c r="S76" s="85"/>
+      <c r="T76" s="85"/>
+      <c r="U76" s="85"/>
+      <c r="V76" s="85"/>
+      <c r="W76" s="85"/>
+      <c r="X76" s="85"/>
+      <c r="Y76" s="85"/>
+      <c r="Z76" s="85"/>
+      <c r="AA76" s="85"/>
+      <c r="AB76" s="85"/>
+      <c r="AC76" s="85"/>
+      <c r="AD76" s="85"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2499,9 +2499,9 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="13"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
@@ -2613,7 +2613,7 @@
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
-      <c r="Z26" s="34"/>
+      <c r="Z26" s="24"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="13"/>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH29" activeCellId="0" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">D20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="6" t="n">
         <f aca="false">D19-C19</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="10"/>
@@ -2253,11 +2253,11 @@
         <v>2</v>
       </c>
       <c r="D20" s="12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="12" t="n">
         <f aca="false">D20-C20</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>14</v>
@@ -2366,11 +2366,11 @@
       </c>
       <c r="D22" s="6" t="n">
         <f aca="false">SUM(D23:D32)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">D22-C22</f>
-        <v>-33</v>
+        <v>-13</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="10"/>
@@ -2425,11 +2425,11 @@
         <v>14</v>
       </c>
       <c r="D23" s="12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" s="14" t="n">
         <f aca="false">D23-C23</f>
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>14</v>
@@ -2535,11 +2535,11 @@
         <v>6</v>
       </c>
       <c r="D25" s="12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E25" s="14" t="n">
         <f aca="false">D25-C25</f>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>14</v>
@@ -2614,9 +2614,9 @@
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="24"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="13"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="20"/>
       <c r="AF26" s="20"/>
@@ -2727,7 +2727,7 @@
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="13"/>
-      <c r="AD28" s="19"/>
+      <c r="AD28" s="24"/>
       <c r="AE28" s="20"/>
       <c r="AF28" s="20"/>
       <c r="AG28" s="22"/>
@@ -4173,11 +4173,11 @@
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">SUM(D55:D68)</f>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
-        <v>-59</v>
+        <v>-37</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="10"/>
@@ -4463,11 +4463,12 @@
         <v>2</v>
       </c>
       <c r="D59" s="12" t="n">
-        <v>0</v>
+        <f aca="false">D19</f>
+        <v>2</v>
       </c>
       <c r="E59" s="12" t="n">
         <f aca="false">D59-C59</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>14</v>
@@ -4576,11 +4577,12 @@
         <v>33</v>
       </c>
       <c r="D61" s="12" t="n">
-        <v>0</v>
+        <f aca="false">D22</f>
+        <v>20</v>
       </c>
       <c r="E61" s="14" t="n">
         <f aca="false">D61-C61</f>
-        <v>-33</v>
+        <v>-13</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>14</v>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH29" activeCellId="0" sqref="AH29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2728,8 +2728,8 @@
       <c r="AB28" s="20"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="24"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
       <c r="AG28" s="22"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="20"/>
@@ -2842,7 +2842,7 @@
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="22"/>
-      <c r="AH30" s="19"/>
+      <c r="AH30" s="24"/>
       <c r="AI30" s="20"/>
       <c r="AJ30" s="20"/>
       <c r="AK30" s="13"/>
@@ -4036,7 +4036,7 @@
       <c r="AD51" s="19"/>
       <c r="AE51" s="21"/>
       <c r="AF51" s="20"/>
-      <c r="AG51" s="63"/>
+      <c r="AG51" s="24"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nr.</t>
   </si>
@@ -529,7 +529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -824,10 +824,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1133,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1570,11 +1566,11 @@
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">SUM(D9:D18)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">D8-C8</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="10"/>
@@ -1859,11 +1855,11 @@
         <v>4</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="12" t="n">
         <f aca="false">D13-C13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>14</v>
@@ -2366,11 +2362,11 @@
       </c>
       <c r="D22" s="6" t="n">
         <f aca="false">SUM(D23:D32)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E22" s="6" t="n">
         <f aca="false">D22-C22</f>
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="10"/>
@@ -2646,11 +2642,11 @@
         <v>6</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="14" t="n">
         <f aca="false">D27-C27</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>14</v>
@@ -2756,11 +2752,11 @@
         <v>5</v>
       </c>
       <c r="D29" s="12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29" s="14" t="n">
         <f aca="false">D29-C29</f>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>14</v>
@@ -2843,9 +2839,11 @@
       <c r="AF30" s="20"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="24"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="13"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="AL30" s="19"/>
       <c r="AM30" s="20"/>
       <c r="AN30" s="20"/>
@@ -2867,11 +2865,11 @@
         <v>2</v>
       </c>
       <c r="D31" s="12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="14" t="n">
         <f aca="false">D31-C31</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>14</v>
@@ -2958,8 +2956,12 @@
       <c r="AH32" s="34"/>
       <c r="AI32" s="20"/>
       <c r="AJ32" s="20"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="19"/>
+      <c r="AK32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL32" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="AM32" s="20"/>
       <c r="AN32" s="20"/>
       <c r="AO32" s="22"/>
@@ -3135,7 +3137,9 @@
       <c r="AI35" s="20"/>
       <c r="AJ35" s="20"/>
       <c r="AK35" s="20"/>
-      <c r="AL35" s="19"/>
+      <c r="AL35" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="AM35" s="20"/>
       <c r="AN35" s="20"/>
       <c r="AO35" s="22"/>
@@ -3552,11 +3556,11 @@
       </c>
       <c r="D43" s="5" t="n">
         <f aca="false">SUM(D44:D52)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6" t="n">
         <f aca="false">D43-C43</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="10"/>
@@ -3951,11 +3955,11 @@
         <v>4</v>
       </c>
       <c r="D50" s="12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50-C50</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>14</v>
@@ -4173,11 +4177,11 @@
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">SUM(D55:D68)</f>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
-        <v>-37</v>
+        <v>-17</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="10"/>
@@ -4348,11 +4352,11 @@
       </c>
       <c r="D57" s="12" t="n">
         <f aca="false">D8</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" s="12" t="n">
         <f aca="false">D57-C57</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>14</v>
@@ -4489,7 +4493,7 @@
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="71"/>
-      <c r="W59" s="54"/>
+      <c r="W59" s="12"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="19"/>
@@ -4578,11 +4582,11 @@
       </c>
       <c r="D61" s="12" t="n">
         <f aca="false">D22</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E61" s="14" t="n">
         <f aca="false">D61-C61</f>
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>14</v>
@@ -4655,22 +4659,24 @@
       <c r="T62" s="24"/>
       <c r="U62" s="24"/>
       <c r="V62" s="24"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="62"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="62"/>
-      <c r="AI62" s="12"/>
-      <c r="AJ62" s="74"/>
-      <c r="AK62" s="13"/>
-      <c r="AL62" s="62"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="24"/>
+      <c r="AI62" s="24"/>
+      <c r="AJ62" s="24"/>
+      <c r="AK62" s="24"/>
+      <c r="AL62" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AM62" s="20"/>
       <c r="AN62" s="20"/>
       <c r="AO62" s="22"/>
@@ -4731,13 +4737,15 @@
       <c r="AI63" s="13"/>
       <c r="AJ63" s="20"/>
       <c r="AK63" s="13"/>
-      <c r="AL63" s="19"/>
+      <c r="AL63" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="AM63" s="51"/>
       <c r="AN63" s="51"/>
       <c r="AO63" s="58"/>
       <c r="AP63" s="52"/>
       <c r="AQ63" s="52"/>
-      <c r="AR63" s="75" t="s">
+      <c r="AR63" s="74" t="s">
         <v>51</v>
       </c>
       <c r="AS63" s="22"/>
@@ -4851,7 +4859,7 @@
       <c r="AO65" s="22"/>
       <c r="AP65" s="19"/>
       <c r="AQ65" s="13"/>
-      <c r="AS65" s="76" t="s">
+      <c r="AS65" s="75" t="s">
         <v>51</v>
       </c>
       <c r="AT65" s="62"/>
@@ -4907,115 +4915,115 @@
       <c r="AT66" s="62"/>
     </row>
     <row r="67" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="79" t="n">
+      <c r="C67" s="78" t="n">
         <f aca="false">SUM(C43)</f>
         <v>10</v>
       </c>
-      <c r="D67" s="77" t="n">
+      <c r="D67" s="76" t="n">
         <f aca="false">SUM(D43)</f>
-        <v>4</v>
-      </c>
-      <c r="E67" s="77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" s="76" t="n">
         <f aca="false">SUM(E43)</f>
-        <v>-6</v>
-      </c>
-      <c r="F67" s="80"/>
-      <c r="G67" s="81" t="s">
+        <v>-2</v>
+      </c>
+      <c r="F67" s="79"/>
+      <c r="G67" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="81"/>
-      <c r="N67" s="81"/>
-      <c r="O67" s="81"/>
-      <c r="P67" s="81"/>
-      <c r="Q67" s="81"/>
-      <c r="R67" s="81"/>
-      <c r="S67" s="81"/>
-      <c r="T67" s="81"/>
-      <c r="U67" s="81"/>
-      <c r="V67" s="81"/>
-      <c r="W67" s="81"/>
-      <c r="X67" s="81"/>
-      <c r="Y67" s="81"/>
-      <c r="Z67" s="81"/>
-      <c r="AA67" s="81"/>
-      <c r="AB67" s="81"/>
-      <c r="AC67" s="81"/>
-      <c r="AD67" s="81"/>
-      <c r="AE67" s="81"/>
-      <c r="AF67" s="81"/>
-      <c r="AG67" s="81"/>
-      <c r="AH67" s="81"/>
-      <c r="AI67" s="81"/>
-      <c r="AJ67" s="81"/>
-      <c r="AK67" s="81"/>
-      <c r="AL67" s="81"/>
-      <c r="AM67" s="81"/>
-      <c r="AN67" s="81"/>
-      <c r="AO67" s="81"/>
-      <c r="AP67" s="81"/>
-      <c r="AQ67" s="81"/>
-      <c r="AR67" s="81"/>
-      <c r="AS67" s="81"/>
-      <c r="AT67" s="81"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="80"/>
+      <c r="AA67" s="80"/>
+      <c r="AB67" s="80"/>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+      <c r="AH67" s="80"/>
+      <c r="AI67" s="80"/>
+      <c r="AJ67" s="80"/>
+      <c r="AK67" s="80"/>
+      <c r="AL67" s="80"/>
+      <c r="AM67" s="80"/>
+      <c r="AN67" s="80"/>
+      <c r="AO67" s="80"/>
+      <c r="AP67" s="80"/>
+      <c r="AQ67" s="80"/>
+      <c r="AR67" s="80"/>
+      <c r="AS67" s="80"/>
+      <c r="AT67" s="80"/>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="77"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="81"/>
-      <c r="N68" s="81"/>
-      <c r="O68" s="81"/>
-      <c r="P68" s="81"/>
-      <c r="Q68" s="81"/>
-      <c r="R68" s="81"/>
-      <c r="S68" s="81"/>
-      <c r="T68" s="81"/>
-      <c r="U68" s="81"/>
-      <c r="V68" s="81"/>
-      <c r="W68" s="81"/>
-      <c r="X68" s="81"/>
-      <c r="Y68" s="81"/>
-      <c r="Z68" s="81"/>
-      <c r="AA68" s="81"/>
-      <c r="AB68" s="81"/>
-      <c r="AC68" s="81"/>
-      <c r="AD68" s="81"/>
-      <c r="AE68" s="81"/>
-      <c r="AF68" s="81"/>
-      <c r="AG68" s="81"/>
-      <c r="AH68" s="81"/>
-      <c r="AI68" s="81"/>
-      <c r="AJ68" s="81"/>
-      <c r="AK68" s="81"/>
-      <c r="AL68" s="81"/>
-      <c r="AM68" s="81"/>
-      <c r="AN68" s="81"/>
-      <c r="AO68" s="81"/>
-      <c r="AP68" s="81"/>
-      <c r="AQ68" s="81"/>
-      <c r="AR68" s="81"/>
-      <c r="AS68" s="81"/>
-      <c r="AT68" s="81"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="80"/>
+      <c r="AA68" s="80"/>
+      <c r="AB68" s="80"/>
+      <c r="AC68" s="80"/>
+      <c r="AD68" s="80"/>
+      <c r="AE68" s="80"/>
+      <c r="AF68" s="80"/>
+      <c r="AG68" s="80"/>
+      <c r="AH68" s="80"/>
+      <c r="AI68" s="80"/>
+      <c r="AJ68" s="80"/>
+      <c r="AK68" s="80"/>
+      <c r="AL68" s="80"/>
+      <c r="AM68" s="80"/>
+      <c r="AN68" s="80"/>
+      <c r="AO68" s="80"/>
+      <c r="AP68" s="80"/>
+      <c r="AQ68" s="80"/>
+      <c r="AR68" s="80"/>
+      <c r="AS68" s="80"/>
+      <c r="AT68" s="80"/>
     </row>
     <row r="69" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="33"/>
@@ -5096,11 +5104,11 @@
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="82" t="s">
+      <c r="G71" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
       <c r="K71" s="33" t="s">
         <v>64</v>
       </c>
@@ -5128,11 +5136,11 @@
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="84" t="s">
+      <c r="G72" s="82"/>
+      <c r="H72" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="83"/>
+      <c r="I72" s="82"/>
       <c r="J72" s="33"/>
       <c r="K72" s="33" t="s">
         <v>65</v>
@@ -5180,32 +5188,32 @@
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
       <c r="J73" s="33"/>
-      <c r="K73" s="85" t="s">
+      <c r="K73" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="85"/>
-      <c r="Q73" s="85"/>
-      <c r="R73" s="85"/>
-      <c r="S73" s="85"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="85"/>
-      <c r="V73" s="85"/>
-      <c r="W73" s="85"/>
-      <c r="X73" s="85"/>
-      <c r="Y73" s="85"/>
-      <c r="Z73" s="85"/>
-      <c r="AA73" s="85"/>
-      <c r="AB73" s="85"/>
-      <c r="AC73" s="85"/>
-      <c r="AD73" s="85"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="84"/>
+      <c r="V73" s="84"/>
+      <c r="W73" s="84"/>
+      <c r="X73" s="84"/>
+      <c r="Y73" s="84"/>
+      <c r="Z73" s="84"/>
+      <c r="AA73" s="84"/>
+      <c r="AB73" s="84"/>
+      <c r="AC73" s="84"/>
+      <c r="AD73" s="84"/>
       <c r="AE73" s="33"/>
       <c r="AF73" s="33"/>
       <c r="AG73" s="33"/>
@@ -5230,32 +5238,32 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
       <c r="J74" s="33"/>
-      <c r="K74" s="85" t="s">
+      <c r="K74" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="85"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="85"/>
-      <c r="T74" s="85"/>
-      <c r="U74" s="85"/>
-      <c r="V74" s="85"/>
-      <c r="W74" s="85"/>
-      <c r="X74" s="85"/>
-      <c r="Y74" s="85"/>
-      <c r="Z74" s="85"/>
-      <c r="AA74" s="85"/>
-      <c r="AB74" s="85"/>
-      <c r="AC74" s="85"/>
-      <c r="AD74" s="85"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="84"/>
+      <c r="R74" s="84"/>
+      <c r="S74" s="84"/>
+      <c r="T74" s="84"/>
+      <c r="U74" s="84"/>
+      <c r="V74" s="84"/>
+      <c r="W74" s="84"/>
+      <c r="X74" s="84"/>
+      <c r="Y74" s="84"/>
+      <c r="Z74" s="84"/>
+      <c r="AA74" s="84"/>
+      <c r="AB74" s="84"/>
+      <c r="AC74" s="84"/>
+      <c r="AD74" s="84"/>
       <c r="AE74" s="33"/>
       <c r="AF74" s="33"/>
       <c r="AG74" s="33"/>
@@ -5274,64 +5282,64 @@
       <c r="AT74" s="33"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="86" t="s">
+      <c r="G75" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
       <c r="J75" s="33"/>
-      <c r="K75" s="85" t="s">
+      <c r="K75" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="85"/>
-      <c r="R75" s="85"/>
-      <c r="S75" s="85"/>
-      <c r="T75" s="85"/>
-      <c r="U75" s="85"/>
-      <c r="V75" s="85"/>
-      <c r="W75" s="85"/>
-      <c r="X75" s="85"/>
-      <c r="Y75" s="85"/>
-      <c r="Z75" s="85"/>
-      <c r="AA75" s="85"/>
-      <c r="AB75" s="85"/>
-      <c r="AC75" s="85"/>
-      <c r="AD75" s="85"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="84"/>
+      <c r="U75" s="84"/>
+      <c r="V75" s="84"/>
+      <c r="W75" s="84"/>
+      <c r="X75" s="84"/>
+      <c r="Y75" s="84"/>
+      <c r="Z75" s="84"/>
+      <c r="AA75" s="84"/>
+      <c r="AB75" s="84"/>
+      <c r="AC75" s="84"/>
+      <c r="AD75" s="84"/>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="87" t="s">
+      <c r="G76" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
       <c r="J76" s="33"/>
-      <c r="K76" s="85" t="s">
+      <c r="K76" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
-      <c r="O76" s="85"/>
-      <c r="P76" s="85"/>
-      <c r="Q76" s="85"/>
-      <c r="R76" s="85"/>
-      <c r="S76" s="85"/>
-      <c r="T76" s="85"/>
-      <c r="U76" s="85"/>
-      <c r="V76" s="85"/>
-      <c r="W76" s="85"/>
-      <c r="X76" s="85"/>
-      <c r="Y76" s="85"/>
-      <c r="Z76" s="85"/>
-      <c r="AA76" s="85"/>
-      <c r="AB76" s="85"/>
-      <c r="AC76" s="85"/>
-      <c r="AD76" s="85"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="84"/>
+      <c r="T76" s="84"/>
+      <c r="U76" s="84"/>
+      <c r="V76" s="84"/>
+      <c r="W76" s="84"/>
+      <c r="X76" s="84"/>
+      <c r="Y76" s="84"/>
+      <c r="Z76" s="84"/>
+      <c r="AA76" s="84"/>
+      <c r="AB76" s="84"/>
+      <c r="AC76" s="84"/>
+      <c r="AD76" s="84"/>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nr.</t>
   </si>
@@ -1129,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE39" activeCellId="0" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">SUM(D34:D39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="55" t="n">
         <f aca="false">D33-C33</f>
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="9"/>
@@ -3043,11 +3043,11 @@
         <v>4</v>
       </c>
       <c r="D34" s="12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="12" t="n">
         <f aca="false">D34-C34</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="57" t="s">
         <v>14</v>
@@ -3140,7 +3140,7 @@
       <c r="AL35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AM35" s="20"/>
+      <c r="AM35" s="24"/>
       <c r="AN35" s="20"/>
       <c r="AO35" s="22"/>
       <c r="AP35" s="19"/>
@@ -3160,11 +3160,11 @@
         <v>1</v>
       </c>
       <c r="D36" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36-C36</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="57" t="s">
         <v>14</v>
@@ -3253,7 +3253,9 @@
       <c r="AK37" s="13"/>
       <c r="AL37" s="34"/>
       <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
+      <c r="AN37" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="AO37" s="22"/>
       <c r="AP37" s="19"/>
       <c r="AQ37" s="20"/>
@@ -3363,9 +3365,11 @@
       <c r="AK39" s="13"/>
       <c r="AL39" s="19"/>
       <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="34"/>
+      <c r="AN39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
       <c r="AQ39" s="20"/>
       <c r="AR39" s="20"/>
       <c r="AS39" s="22"/>
@@ -4177,11 +4181,11 @@
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">SUM(D55:D68)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="10"/>
@@ -4697,11 +4701,12 @@
         <v>13</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>0</v>
+        <f aca="false">D33</f>
+        <v>4</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63-C63</f>
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F63" s="19" t="s">
         <v>14</v>
@@ -4791,11 +4796,13 @@
       <c r="AI64" s="13"/>
       <c r="AJ64" s="71"/>
       <c r="AK64" s="71"/>
-      <c r="AL64" s="62"/>
-      <c r="AM64" s="13"/>
-      <c r="AN64" s="71"/>
-      <c r="AO64" s="71"/>
-      <c r="AP64" s="62"/>
+      <c r="AL64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM64" s="24"/>
+      <c r="AN64" s="24"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
       <c r="AQ64" s="13"/>
       <c r="AR64" s="20"/>
       <c r="AS64" s="22"/>

--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nr.</t>
   </si>
@@ -1129,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:AT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE39" activeCellId="0" sqref="AE39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN55" activeCellId="0" sqref="AN55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">SUM(D34:D39)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E33" s="55" t="n">
         <f aca="false">D33-C33</f>
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="9"/>
@@ -3274,11 +3274,11 @@
         <v>8</v>
       </c>
       <c r="D38" s="12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38-C38</f>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>14</v>
@@ -3370,9 +3370,11 @@
       </c>
       <c r="AO39" s="24"/>
       <c r="AP39" s="24"/>
-      <c r="AQ39" s="20"/>
+      <c r="AQ39" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="AR39" s="20"/>
-      <c r="AS39" s="22"/>
+      <c r="AS39" s="24"/>
       <c r="AT39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3542,8 +3544,10 @@
       <c r="AN42" s="20"/>
       <c r="AO42" s="22"/>
       <c r="AP42" s="19"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
+      <c r="AQ42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR42" s="24"/>
       <c r="AS42" s="22"/>
       <c r="AT42" s="62"/>
     </row>
@@ -4168,7 +4172,7 @@
       <c r="AQ53" s="21"/>
       <c r="AR53" s="20"/>
       <c r="AS53" s="13"/>
-      <c r="AT53" s="19"/>
+      <c r="AT53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
@@ -4181,11 +4185,11 @@
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">SUM(D55:D68)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E54" s="66" t="n">
         <f aca="false">D54-C54</f>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="10"/>
@@ -4702,11 +4706,11 @@
       </c>
       <c r="D63" s="12" t="n">
         <f aca="false">D33</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63-C63</f>
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F63" s="19" t="s">
         <v>14</v>
